--- a/biology/Botanique/Formanodendron/Formanodendron.xlsx
+++ b/biology/Botanique/Formanodendron/Formanodendron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trigonobalanus est un genre de plantes de la famille des Fagacées.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (25 février 2020)[4], Catalogue of Life                                   (25 février 2020)[5], World Checklist of Selected Plant Families (WCSP)  (25 février 2020)[3], The Plant List            (25 février 2020)[6] et Tropicos                                           (25 février 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (25 février 2020), Catalogue of Life                                   (25 février 2020), World Checklist of Selected Plant Families (WCSP)  (25 février 2020), The Plant List            (25 février 2020) et Tropicos                                           (25 février 2020) :
 Trigonobalanus doichangensis (A.Camus) Forman, Kew Bull. 17: 387 (1964) (syn. Formanodendron doichangensis (A. Camus) Nixon &amp; Crepet). - Chine et Thaïlande
 Trigonobalanus excelsa Lozano, Hern. Cam. &amp; Henao, Caldasia 12: 519 (1979). - endémique de Colombie
 Trigonobalanus verticillata Forman, Taxon 11: 140 (1962).</t>
